--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H2">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I2">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J2">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>93.40088289421159</v>
+        <v>192.8912483686992</v>
       </c>
       <c r="R2">
-        <v>840.6079460479042</v>
+        <v>1736.021235318293</v>
       </c>
       <c r="S2">
-        <v>0.1137410273566399</v>
+        <v>0.1701038340177261</v>
       </c>
       <c r="T2">
-        <v>0.1137410273566399</v>
+        <v>0.1701038340177262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H3">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I3">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J3">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>272.7034081826854</v>
+        <v>506.4390029409224</v>
       </c>
       <c r="R3">
-        <v>2454.330673644168</v>
+        <v>4557.951026468301</v>
       </c>
       <c r="S3">
-        <v>0.3320907131626058</v>
+        <v>0.4466102885689273</v>
       </c>
       <c r="T3">
-        <v>0.3320907131626057</v>
+        <v>0.4466102885689274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H4">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I4">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J4">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>24.64711157767557</v>
+        <v>36.35002049644157</v>
       </c>
       <c r="R4">
-        <v>221.8240041990801</v>
+        <v>327.150184467974</v>
       </c>
       <c r="S4">
-        <v>0.03001457486642547</v>
+        <v>0.0320557718681394</v>
       </c>
       <c r="T4">
-        <v>0.03001457486642547</v>
+        <v>0.0320557718681394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H5">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I5">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J5">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>7.534872127007112</v>
+        <v>13.68337371785689</v>
       </c>
       <c r="R5">
-        <v>67.813849143064</v>
+        <v>123.150363460712</v>
       </c>
       <c r="S5">
-        <v>0.009175760123139183</v>
+        <v>0.01206687369898606</v>
       </c>
       <c r="T5">
-        <v>0.009175760123139184</v>
+        <v>0.01206687369898607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>43.61055379363556</v>
+        <v>48.49718875603555</v>
       </c>
       <c r="R6">
-        <v>392.49498414272</v>
+        <v>436.4746988043199</v>
       </c>
       <c r="S6">
-        <v>0.05310773344293009</v>
+        <v>0.04276792138705281</v>
       </c>
       <c r="T6">
-        <v>0.05310773344293008</v>
+        <v>0.04276792138705281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>127.3301309766933</v>
@@ -883,10 +883,10 @@
         <v>1145.97117879024</v>
       </c>
       <c r="S7">
-        <v>0.1550591328686697</v>
+        <v>0.1122878494918252</v>
       </c>
       <c r="T7">
-        <v>0.1550591328686697</v>
+        <v>0.1122878494918252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>11.50818013715556</v>
+        <v>9.13921092952889</v>
       </c>
       <c r="R8">
-        <v>103.5736212344</v>
+        <v>82.25289836576</v>
       </c>
       <c r="S8">
-        <v>0.01401434538138045</v>
+        <v>0.008059540451716217</v>
       </c>
       <c r="T8">
-        <v>0.01401434538138044</v>
+        <v>0.008059540451716217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>3.518167452391111</v>
+        <v>3.440307238542222</v>
       </c>
       <c r="R9">
-        <v>31.66350707152</v>
+        <v>30.96276514688</v>
       </c>
       <c r="S9">
-        <v>0.004284327599995919</v>
+        <v>0.00303388285587938</v>
       </c>
       <c r="T9">
-        <v>0.004284327599995919</v>
+        <v>0.003033882855879381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H10">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I10">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J10">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>7.993358551597335</v>
+        <v>11.45964437905955</v>
       </c>
       <c r="R10">
-        <v>71.94022696437601</v>
+        <v>103.136799411536</v>
       </c>
       <c r="S10">
-        <v>0.009734092286027082</v>
+        <v>0.01010584700883732</v>
       </c>
       <c r="T10">
-        <v>0.00973409228602708</v>
+        <v>0.01010584700883732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H11">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I11">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J11">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>23.338281741038</v>
+        <v>30.08747634986133</v>
       </c>
       <c r="R11">
-        <v>210.044535669342</v>
+        <v>270.787287148752</v>
       </c>
       <c r="S11">
-        <v>0.02842071787448685</v>
+        <v>0.02653306008599392</v>
       </c>
       <c r="T11">
-        <v>0.02842071787448685</v>
+        <v>0.02653306008599393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H12">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I12">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J12">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>2.109329098363334</v>
+        <v>2.159550065560889</v>
       </c>
       <c r="R12">
-        <v>18.98396188527</v>
+        <v>19.435950590048</v>
       </c>
       <c r="S12">
-        <v>0.002568682985072394</v>
+        <v>0.001904429304138141</v>
       </c>
       <c r="T12">
-        <v>0.002568682985072393</v>
+        <v>0.001904429304138141</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H13">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I13">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J13">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>0.6448433107406667</v>
+        <v>0.8129274813582222</v>
       </c>
       <c r="R13">
-        <v>5.803589796666</v>
+        <v>7.316347332224001</v>
       </c>
       <c r="S13">
-        <v>0.0007852724554089401</v>
+        <v>0.0007168914221193172</v>
       </c>
       <c r="T13">
-        <v>0.0007852724554089401</v>
+        <v>0.0007168914221193175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H14">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I14">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J14">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>47.56557961664801</v>
+        <v>39.04131942586577</v>
       </c>
       <c r="R14">
-        <v>428.0902165498321</v>
+        <v>351.3718748327919</v>
       </c>
       <c r="S14">
-        <v>0.05792405515630176</v>
+        <v>0.03442913131422378</v>
       </c>
       <c r="T14">
-        <v>0.05792405515630175</v>
+        <v>0.03442913131422379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H15">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I15">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J15">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>138.877655881866</v>
+        <v>102.5035974972827</v>
       </c>
       <c r="R15">
-        <v>1249.898902936794</v>
+        <v>922.532377475544</v>
       </c>
       <c r="S15">
-        <v>0.1691213912268519</v>
+        <v>0.09039422515203645</v>
       </c>
       <c r="T15">
-        <v>0.1691213912268519</v>
+        <v>0.09039422515203648</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H16">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I16">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J16">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>12.55185295621</v>
+        <v>7.357268789228446</v>
       </c>
       <c r="R16">
-        <v>112.96667660589</v>
+        <v>66.21541910305601</v>
       </c>
       <c r="S16">
-        <v>0.01528530144715881</v>
+        <v>0.006488109955898836</v>
       </c>
       <c r="T16">
-        <v>0.01528530144715881</v>
+        <v>0.006488109955898837</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H17">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I17">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J17">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>3.837228824318</v>
+        <v>2.769524116103111</v>
       </c>
       <c r="R17">
-        <v>34.535059418862</v>
+        <v>24.925717044928</v>
       </c>
       <c r="S17">
-        <v>0.004672871766905848</v>
+        <v>0.00244234341649966</v>
       </c>
       <c r="T17">
-        <v>0.004672871766905849</v>
+        <v>0.002442343416499661</v>
       </c>
     </row>
   </sheetData>
